--- a/Web/YTTX/ng_module.xlsx
+++ b/Web/YTTX/ng_module.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>Directive</t>
   </si>
@@ -64,6 +64,66 @@
   </si>
   <si>
     <t>鼠标事件支持</t>
+  </si>
+  <si>
+    <t>ReactiveFormsModule</t>
+  </si>
+  <si>
+    <t>响应式表单</t>
+  </si>
+  <si>
+    <t>FormControl</t>
+  </si>
+  <si>
+    <t>表单控制项</t>
+  </si>
+  <si>
+    <t>FormGroup</t>
+  </si>
+  <si>
+    <t>表单控制区组</t>
+  </si>
+  <si>
+    <t>FormBuilder</t>
+  </si>
+  <si>
+    <t>表单控制管理</t>
+  </si>
+  <si>
+    <t>Validators</t>
+  </si>
+  <si>
+    <t>表单验证器</t>
+  </si>
+  <si>
+    <t>FormArray</t>
+  </si>
+  <si>
+    <t>多组包含表单控制组</t>
+  </si>
+  <si>
+    <t>InjectionToken</t>
+  </si>
+  <si>
+    <t>非类依赖定义(适应于非类导出)</t>
+  </si>
+  <si>
+    <t>HttpClientModule</t>
+  </si>
+  <si>
+    <t>http服务</t>
+  </si>
+  <si>
+    <t>RouterModule</t>
+  </si>
+  <si>
+    <t>路由器</t>
+  </si>
+  <si>
+    <t>Routes</t>
+  </si>
+  <si>
+    <t>路由</t>
   </si>
 </sst>
 </file>
@@ -71,12 +131,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,46 +152,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,8 +189,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,23 +220,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,39 +273,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,181 +304,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,41 +489,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,15 +516,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -518,6 +527,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,153 +578,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,15 +1091,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="28.625" customWidth="1"/>
     <col min="2" max="2" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1112,6 +1165,86 @@
       </c>
       <c r="B8" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
